--- a/medicine/Psychotrope/Famille_Molson/Famille_Molson.xlsx
+++ b/medicine/Psychotrope/Famille_Molson/Famille_Molson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La famille Molson est une célèbre famille montréalaise d'origine britannique dont l'ancêtre est John Molson.
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire du Lincolnshire, en Angleterre, John Molson immigre dans la province britannique de Québec en 1782.
 Lui et ses enfants sont à l'origine de la plus grande brasserie canadienne, Molson, ainsi que du financement du premier bateau à vapeur et du premier chemin de fer canadien.
 Ses fils ont établi la Banque Molson et ont financé la construction d'une église protestante à Montréal. 
-Le mausolée de la famille Molson, œuvre de George Browne, architecte originaire de Belfast, en Irlande, figure parmi les monuments funéraires prestigieux du cimetière Mont-Royal[1]. 
+Le mausolée de la famille Molson, œuvre de George Browne, architecte originaire de Belfast, en Irlande, figure parmi les monuments funéraires prestigieux du cimetière Mont-Royal. 
 La Fondation Molson finance des projets philanthropiques.
 </t>
         </is>
@@ -547,7 +561,9 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hugh Elsdale Molson
 John Molson (1763-1836)
